--- a/archive/nba odds 2021-22.xlsx
+++ b/archive/nba odds 2021-22.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vycha\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vycha\CS1470\NBA-Deep-Learning\archive\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5050A53-E73C-427E-8DA6-C12ECC3C2D68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7452D74E-F5E3-475C-A79A-0EFFA126F90D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{5F81424B-3E68-4A93-A155-DFEDD2E465FB}"/>
   </bookViews>
@@ -545,8 +545,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2989F444-AF61-4A2B-8847-8BAF2E18DC07}">
   <dimension ref="A1:M447"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A433" workbookViewId="0">
-      <selection activeCell="O449" sqref="O449"/>
+    <sheetView tabSelected="1" topLeftCell="A53" workbookViewId="0">
+      <selection activeCell="J83" sqref="J83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="9" x14ac:dyDescent="0.2"/>
@@ -3945,7 +3945,7 @@
         <v>109</v>
       </c>
       <c r="J83" s="2">
-        <v>10.5</v>
+        <v>210.5</v>
       </c>
       <c r="K83" s="2">
         <v>229.5</v>
